--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SignInTest" sheetId="1" r:id="rId1"/>
     <sheet name="CreateAccountTest" sheetId="4" r:id="rId2"/>
+    <sheet name="DoAmazon" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>runmode</t>
   </si>
@@ -109,7 +110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -122,6 +123,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -406,7 +409,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -462,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -531,4 +534,62 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7">
+        <v>9899894877</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6">
+        <v>9989984876</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="SignInTest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>runmode</t>
   </si>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,9 +569,6 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6">
